--- a/biology/Zoologie/Anilios_kimberleyensis/Anilios_kimberleyensis.xlsx
+++ b/biology/Zoologie/Anilios_kimberleyensis/Anilios_kimberleyensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anilios kimberleyensis est une espèce de serpents de la famille des Typhlopidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anilios kimberleyensis est une espèce de serpents de la famille des Typhlopidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Australie-Occidentale en Australie[1]. Elle se rencontre dans le Kimberley[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Australie-Occidentale en Australie. Elle se rencontre dans le Kimberley.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans sa description[2] Storr indique que le plus grand spécimen en sa possession mesure 296 mm dont 2,2 mm pour la queue. La couleur sombre de son dos s'estompe progressivement jusqu'à la teinte claire de sa face ventrale.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans sa description Storr indique que le plus grand spécimen en sa possession mesure 296 mm dont 2,2 mm pour la queue. La couleur sombre de son dos s'estompe progressivement jusqu'à la teinte claire de sa face ventrale.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de kimberley et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, l'île de Bigge dans le Kimberley, l'une des neuf régions d'Australie Occidentale.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Storr, 1981 : The genus Ramphotyphlops (Serpentes: Typhlopidae) in Western Australia. Records of the Western Australian Museum, vol. 9, no 3, p. 235-271 (texte intégral).</t>
         </is>
